--- a/src/Cotizaciones/REC2002_20456789123.xlsx
+++ b/src/Cotizaciones/REC2002_20456789123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2351F3A6-DC6B-4AE6-9E91-9D6FA1513D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78739E0B-E9C1-4850-AAC5-5C164C95940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2100" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3708" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Cotización de Productos</t>
+  </si>
+  <si>
+    <t>Cotizacion N°</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -299,6 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -691,7 +695,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +711,12 @@
         <v>34</v>
       </c>
       <c r="B1" s="17"/>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="19">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/src/Cotizaciones/REC2002_20456789123.xlsx
+++ b/src/Cotizaciones/REC2002_20456789123.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo-patitas\src\Cotizaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78739E0B-E9C1-4850-AAC5-5C164C95940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC49BB85-0826-4AFE-BFDD-19D6A1DFF05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1692" yWindow="1452" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COTIZACION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Datos del Cliente</t>
   </si>
@@ -60,15 +60,9 @@
     <t>FechaEmision</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>Razón Social:</t>
   </si>
   <si>
-    <t>FechaRecepcion (opcional)</t>
-  </si>
-  <si>
     <t>Moneda</t>
   </si>
   <si>
@@ -139,6 +133,9 @@
   </si>
   <si>
     <t>Cotizacion N°</t>
+  </si>
+  <si>
+    <t>FechaEntrega</t>
   </si>
 </sst>
 </file>
@@ -262,7 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -297,12 +294,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -694,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,14 +708,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="19">
+        <v>33</v>
+      </c>
+      <c r="D1" s="16">
         <v>1000</v>
       </c>
     </row>
@@ -728,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -762,7 +763,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="14">
         <v>20456789123</v>
@@ -770,19 +771,22 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
+      <c r="E10" s="20">
+        <v>45962</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="20">
+        <v>45980</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,44 +794,44 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -835,7 +839,7 @@
         <v>1030</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4">
         <v>40</v>
@@ -853,7 +857,7 @@
         <v>1031</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4">
         <v>40</v>
@@ -871,7 +875,7 @@
         <v>1034</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4">
         <v>40</v>
@@ -886,7 +890,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="6">
         <f>SUM(E17:E19)</f>
@@ -895,7 +899,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="6">
         <f>ROUND(E21*0.18,2)</f>
@@ -904,7 +908,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7">
         <f>E21+E22</f>
@@ -912,13 +916,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11"/>
